--- a/docs/StructureDefinition-Observation-coded-other-fetal-death-cause-or-condition.xlsx
+++ b/docs/StructureDefinition-Observation-coded-other-fetal-death-cause-or-condition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -674,7 +674,7 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>Coded other significant causes or conditions of fetal death</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -1505,6 +1505,9 @@
   </si>
   <si>
     <t>Observation.component:position.code</t>
+  </si>
+  <si>
+    <t>Position (attribute)</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -8591,7 +8594,7 @@
         <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>449</v>
@@ -8610,7 +8613,7 @@
         <v>82</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>82</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>452</v>
@@ -8710,7 +8713,7 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>454</v>
@@ -8741,7 +8744,7 @@
         <v>93</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="W57" t="s" s="2">
         <v>82</v>
@@ -8806,7 +8809,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>458</v>
@@ -8928,7 +8931,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>462</v>
@@ -9050,7 +9053,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>463</v>

--- a/docs/StructureDefinition-Observation-coded-other-fetal-death-cause-or-condition.xlsx
+++ b/docs/StructureDefinition-Observation-coded-other-fetal-death-cause-or-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-coded-other-fetal-death-cause-or-condition.xlsx
+++ b/docs/StructureDefinition-Observation-coded-other-fetal-death-cause-or-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
